--- a/REGULAR/CPDO/MANALO, CELSA B.xlsx
+++ b/REGULAR/CPDO/MANALO, CELSA B.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="482">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>12/27-29/2022</t>
   </si>
   <si>
-    <t>12/5-7/2023</t>
-  </si>
-  <si>
     <t>UT(0-4-23)</t>
   </si>
   <si>
@@ -1429,6 +1426,60 @@
   </si>
   <si>
     <t>UT(0-5-18)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-49)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/5,6,19,22/2022</t>
+  </si>
+  <si>
+    <t>UT(0-5-14)</t>
+  </si>
+  <si>
+    <t>UT(2-0-48)</t>
+  </si>
+  <si>
+    <t>5/2,30/2022</t>
+  </si>
+  <si>
+    <t>8/2,3,9,15,26/2022</t>
+  </si>
+  <si>
+    <t>9/1,2,9,12,19/2022</t>
+  </si>
+  <si>
+    <t>10/5,26/2022</t>
+  </si>
+  <si>
+    <t>12/5-7/2022</t>
+  </si>
+  <si>
+    <t>UT(1-1-28)</t>
+  </si>
+  <si>
+    <t>4/8,21/2022</t>
+  </si>
+  <si>
+    <t>UT(0-6-22)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/21,28,30/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UT(0-6-17)</t>
   </si>
 </sst>
 </file>
@@ -3829,7 +3880,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K578" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K585" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4207,12 +4258,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K578"/>
+  <dimension ref="A2:M585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A484" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
+      <pane ySplit="3690" topLeftCell="A483" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="F493" sqref="F493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,7 +4281,7 @@
     <col min="11" max="11" width="30.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4251,7 +4302,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4269,7 +4320,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4287,7 +4338,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4295,7 +4346,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4308,7 +4359,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -4325,7 +4376,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4369,7 +4420,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.52230000000003</v>
+        <v>30.504300000000057</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4379,12 +4430,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>186.25</v>
+        <v>188.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +4458,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35431</v>
       </c>
@@ -4424,7 +4476,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35462</v>
@@ -4443,7 +4495,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A21" si="0">EDATE(A12,1)</f>
         <v>35490</v>
@@ -4462,7 +4514,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4481,7 +4533,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4500,7 +4552,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -15537,11 +15589,15 @@
       <c r="A486" s="40">
         <v>44621</v>
       </c>
-      <c r="B486" s="20"/>
+      <c r="B486" s="20" t="s">
+        <v>479</v>
+      </c>
       <c r="C486" s="13">
         <v>1.25</v>
       </c>
-      <c r="D486" s="39"/>
+      <c r="D486" s="39">
+        <v>3</v>
+      </c>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
       <c r="G486" s="13">
@@ -15551,22 +15607,24 @@
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="20"/>
+      <c r="K486" s="20" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B487" s="20"/>
-      <c r="C487" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D487" s="39"/>
+      <c r="A487" s="40"/>
+      <c r="B487" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39">
+        <v>0.78500000000000003</v>
+      </c>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H487" s="39"/>
       <c r="I487" s="9"/>
@@ -15575,13 +15633,17 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B488" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B488" s="20" t="s">
+        <v>464</v>
+      </c>
       <c r="C488" s="13">
         <v>1.25</v>
       </c>
-      <c r="D488" s="39"/>
+      <c r="D488" s="39">
+        <v>2</v>
+      </c>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
       <c r="G488" s="13">
@@ -15591,22 +15653,24 @@
       <c r="H488" s="39"/>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="20"/>
+      <c r="K488" s="20" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B489" s="20"/>
-      <c r="C489" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D489" s="39"/>
+      <c r="A489" s="40"/>
+      <c r="B489" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C489" s="13"/>
+      <c r="D489" s="39">
+        <v>0.79600000000000004</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H489" s="39"/>
       <c r="I489" s="9"/>
@@ -15615,13 +15679,17 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B490" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>464</v>
+      </c>
       <c r="C490" s="13">
         <v>1.25</v>
       </c>
-      <c r="D490" s="39"/>
+      <c r="D490" s="39">
+        <v>2</v>
+      </c>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
       <c r="G490" s="13">
@@ -15631,22 +15699,24 @@
       <c r="H490" s="39"/>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="20" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B491" s="20"/>
-      <c r="C491" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D491" s="39"/>
+      <c r="A491" s="40"/>
+      <c r="B491" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C491" s="13"/>
+      <c r="D491" s="39">
+        <v>1.1830000000000001</v>
+      </c>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H491" s="39"/>
       <c r="I491" s="9"/>
@@ -15655,13 +15725,17 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B492" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B492" s="20" t="s">
+        <v>470</v>
+      </c>
       <c r="C492" s="13">
         <v>1.25</v>
       </c>
-      <c r="D492" s="39"/>
+      <c r="D492" s="39">
+        <v>2.1</v>
+      </c>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
       <c r="G492" s="13">
@@ -15675,13 +15749,17 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B493" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>467</v>
+      </c>
       <c r="C493" s="13">
         <v>1.25</v>
       </c>
-      <c r="D493" s="39"/>
+      <c r="D493" s="39">
+        <v>4</v>
+      </c>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
       <c r="G493" s="13">
@@ -15691,110 +15769,110 @@
       <c r="H493" s="39"/>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
+      <c r="K493" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C494" s="13">
-        <v>1.25</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C494" s="13"/>
       <c r="D494" s="39">
-        <v>1</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H494" s="39"/>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
-      <c r="K494" s="49">
-        <v>45251</v>
-      </c>
+      <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="40"/>
+      <c r="A495" s="40">
+        <v>44774</v>
+      </c>
       <c r="B495" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="C495" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="C495" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D495" s="39">
-        <v>0.66200000000000003</v>
+        <v>5</v>
       </c>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G495" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="49"/>
+      <c r="K495" s="20" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C496" s="13">
-        <v>1.25</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C496" s="13"/>
       <c r="D496" s="39">
-        <v>2</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
-      <c r="K496" s="20" t="s">
-        <v>460</v>
-      </c>
+      <c r="K496" s="20"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="40"/>
+      <c r="A497" s="40">
+        <v>44805</v>
+      </c>
       <c r="B497" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C497" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="C497" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D497" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G497" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="49">
-        <v>45272</v>
+      <c r="K497" s="20" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
-        <v>59</v>
+        <v>466</v>
       </c>
       <c r="C498" s="13"/>
       <c r="D498" s="39">
-        <v>3</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
@@ -15805,37 +15883,43 @@
       <c r="H498" s="39"/>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20" t="s">
-        <v>461</v>
-      </c>
+      <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="40"/>
+      <c r="A499" s="40">
+        <v>44835</v>
+      </c>
       <c r="B499" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C499" s="13"/>
+        <v>464</v>
+      </c>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D499" s="39">
-        <v>0.54800000000000004</v>
+        <v>2</v>
       </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="20"/>
+      <c r="K499" s="20" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B500" s="20"/>
+      <c r="A500" s="40"/>
+      <c r="B500" s="20" t="s">
+        <v>348</v>
+      </c>
       <c r="C500" s="13"/>
-      <c r="D500" s="39"/>
+      <c r="D500" s="39">
+        <v>0.34199999999999997</v>
+      </c>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
       <c r="G500" s="13" t="str">
@@ -15849,15 +15933,17 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="B501" s="20" t="s">
-        <v>47</v>
+        <v>462</v>
       </c>
       <c r="C501" s="13">
         <v>1.25</v>
       </c>
-      <c r="D501" s="39"/>
+      <c r="D501" s="39">
+        <v>1</v>
+      </c>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
       <c r="G501" s="13">
@@ -15868,38 +15954,42 @@
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="49">
-        <v>44935</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B502" s="20"/>
-      <c r="C502" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D502" s="39"/>
+      <c r="A502" s="40"/>
+      <c r="B502" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C502" s="13"/>
+      <c r="D502" s="39">
+        <v>0.66200000000000003</v>
+      </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="20"/>
+      <c r="K502" s="49"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B503" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C503" s="13">
         <v>1.25</v>
       </c>
-      <c r="D503" s="39"/>
+      <c r="D503" s="39">
+        <v>3</v>
+      </c>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
       <c r="G503" s="13">
@@ -15909,62 +15999,68 @@
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
+      <c r="K503" s="20" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B504" s="20"/>
-      <c r="C504" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D504" s="39"/>
+      <c r="A504" s="40"/>
+      <c r="B504" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C504" s="13"/>
+      <c r="D504" s="39">
+        <v>1</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="49">
+        <v>44907</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B505" s="20"/>
-      <c r="C505" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D505" s="39"/>
+      <c r="A505" s="40"/>
+      <c r="B505" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39">
+        <v>3</v>
+      </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="20" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B506" s="20"/>
-      <c r="C506" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D506" s="39"/>
+      <c r="A506" s="40"/>
+      <c r="B506" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39">
+        <v>0.54800000000000004</v>
+      </c>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
@@ -15972,16 +16068,12 @@
       <c r="K506" s="20"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B507" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="A507" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B507" s="20"/>
       <c r="C507" s="13"/>
-      <c r="D507" s="39">
-        <v>3</v>
-      </c>
+      <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
       <c r="G507" s="13" t="str">
@@ -15991,44 +16083,46 @@
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20" t="s">
-        <v>458</v>
-      </c>
+      <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40"/>
+      <c r="A508" s="40">
+        <v>44927</v>
+      </c>
       <c r="B508" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C508" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H508" s="39">
-        <v>2</v>
-      </c>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20" t="s">
-        <v>459</v>
+      <c r="K508" s="49">
+        <v>44935</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45139</v>
+        <v>44958</v>
       </c>
       <c r="B509" s="20"/>
-      <c r="C509" s="13"/>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
@@ -16037,16 +16131,18 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45170</v>
+        <v>44986</v>
       </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
@@ -16055,16 +16151,18 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45200</v>
+        <v>45017</v>
       </c>
       <c r="B511" s="20"/>
-      <c r="C511" s="13"/>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D511" s="39"/>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
@@ -16073,16 +16171,18 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45231</v>
+        <v>45047</v>
       </c>
       <c r="B512" s="20"/>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
@@ -16091,16 +16191,18 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45261</v>
+        <v>45078</v>
       </c>
       <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
@@ -16109,27 +16211,35 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
-      <c r="D514" s="39"/>
+        <v>45108</v>
+      </c>
+      <c r="B514" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D514" s="39">
+        <v>3</v>
+      </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="20"/>
+      <c r="K514" s="20" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B515" s="20"/>
+      <c r="A515" s="40"/>
+      <c r="B515" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C515" s="13"/>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
@@ -16138,23 +16248,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H515" s="39"/>
+      <c r="H515" s="39">
+        <v>2</v>
+      </c>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
+      <c r="K515" s="20" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45352</v>
+        <v>45139</v>
       </c>
       <c r="B516" s="20"/>
-      <c r="C516" s="13"/>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
@@ -16163,7 +16279,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45383</v>
+        <v>45170</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -16181,7 +16297,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45413</v>
+        <v>45200</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -16199,7 +16315,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45444</v>
+        <v>45231</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -16217,7 +16333,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45474</v>
+        <v>45261</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -16235,7 +16351,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -16253,7 +16369,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -16271,7 +16387,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -16289,7 +16405,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -16307,7 +16423,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -16325,7 +16441,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -16343,7 +16459,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -16361,7 +16477,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -16379,7 +16495,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -16397,7 +16513,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -16415,7 +16531,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -16433,7 +16549,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -16451,7 +16567,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -16469,7 +16585,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -16487,7 +16603,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -16505,7 +16621,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -16523,7 +16639,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16541,7 +16657,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46023</v>
+        <v>45809</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16559,7 +16675,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46054</v>
+        <v>45839</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16577,7 +16693,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46082</v>
+        <v>45870</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16595,7 +16711,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46113</v>
+        <v>45901</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16613,7 +16729,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46143</v>
+        <v>45931</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16631,7 +16747,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46174</v>
+        <v>45962</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16649,7 +16765,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46204</v>
+        <v>45992</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16667,7 +16783,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46235</v>
+        <v>46023</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16685,7 +16801,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46266</v>
+        <v>46054</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16703,7 +16819,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46296</v>
+        <v>46082</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16721,7 +16837,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46327</v>
+        <v>46113</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16739,7 +16855,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46357</v>
+        <v>46143</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16757,7 +16873,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46388</v>
+        <v>46174</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16775,7 +16891,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46419</v>
+        <v>46204</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16793,7 +16909,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46447</v>
+        <v>46235</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16811,7 +16927,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46478</v>
+        <v>46266</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16829,7 +16945,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46508</v>
+        <v>46296</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16847,7 +16963,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46539</v>
+        <v>46327</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16865,7 +16981,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46569</v>
+        <v>46357</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16883,7 +16999,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46600</v>
+        <v>46388</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16901,7 +17017,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46631</v>
+        <v>46419</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16919,7 +17035,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46661</v>
+        <v>46447</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16937,7 +17053,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46692</v>
+        <v>46478</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16955,25 +17071,25 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46722</v>
-      </c>
-      <c r="B561" s="15"/>
-      <c r="C561" s="41"/>
-      <c r="D561" s="42"/>
+        <v>46508</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
       <c r="E561" s="9"/>
-      <c r="F561" s="15"/>
-      <c r="G561" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H561" s="42"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
       <c r="I561" s="9"/>
-      <c r="J561" s="12"/>
-      <c r="K561" s="15"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46753</v>
+        <v>46539</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16991,7 +17107,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>46784</v>
+        <v>46569</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -17009,7 +17125,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>46813</v>
+        <v>46600</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -17027,7 +17143,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>46844</v>
+        <v>46631</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -17045,7 +17161,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>46874</v>
+        <v>46661</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -17063,7 +17179,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>46905</v>
+        <v>46692</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -17081,25 +17197,25 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>46935</v>
-      </c>
-      <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
-      <c r="D568" s="39"/>
+        <v>46722</v>
+      </c>
+      <c r="B568" s="15"/>
+      <c r="C568" s="41"/>
+      <c r="D568" s="42"/>
       <c r="E568" s="9"/>
-      <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="39"/>
+      <c r="F568" s="15"/>
+      <c r="G568" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="42"/>
       <c r="I568" s="9"/>
-      <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="J568" s="12"/>
+      <c r="K568" s="15"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46966</v>
+        <v>46753</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -17117,7 +17233,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46997</v>
+        <v>46784</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17135,7 +17251,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>47027</v>
+        <v>46813</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17153,7 +17269,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>47058</v>
+        <v>46844</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17171,7 +17287,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>47088</v>
+        <v>46874</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17189,7 +17305,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>47119</v>
+        <v>46905</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17207,7 +17323,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>47150</v>
+        <v>46935</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17225,7 +17341,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>47178</v>
+        <v>46966</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17243,7 +17359,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>47209</v>
+        <v>46997</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17261,7 +17377,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>47239</v>
+        <v>47027</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17276,6 +17392,132 @@
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="40">
+        <v>47088</v>
+      </c>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="40">
+        <v>47119</v>
+      </c>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40">
+        <v>47150</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40">
+        <v>47178</v>
+      </c>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40">
+        <v>47209</v>
+      </c>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40">
+        <v>47239</v>
+      </c>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17393,14 +17635,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.66200000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CPDO/MANALO, CELSA B.xlsx
+++ b/REGULAR/CPDO/MANALO, CELSA B.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CPDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB34986-4FA8-4C01-9B00-72D6987A50FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="487">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1493,12 +1492,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2369,7 +2371,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2414,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2478,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2538,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2604,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2667,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2765,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2824,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2889,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2932,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3007,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3193,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,7 +3259,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3317,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3383,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3439,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3514,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +3557,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3623,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3679,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3777,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3840,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3904,25 +3906,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3934,13 +3936,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3949,14 +3951,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4260,7 +4262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4270,7 +4272,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4278,34 +4280,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N575"/>
+  <dimension ref="A2:N576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A339" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A493" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:O1048576"/>
-      <selection pane="bottomLeft" activeCell="O332" sqref="O332"/>
+      <selection pane="bottomLeft" activeCell="K512" sqref="K512"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4330,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4348,7 +4350,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4370,7 +4372,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4378,7 +4380,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4391,7 +4393,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4408,7 +4410,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4452,7 +4454,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="50">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-27.995699999999943</v>
+        <v>-26.745699999999943</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4462,12 +4464,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="50">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>149.75</v>
+        <v>151</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>90</v>
       </c>
@@ -4489,7 +4491,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35764</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>485</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35795</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>485</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>485</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>485</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>91</v>
       </c>
@@ -4716,7 +4718,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35826</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>485</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>485</v>
       </c>
@@ -4815,7 +4817,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>485</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35854</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>485</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35885</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>485</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35915</v>
       </c>
@@ -5013,7 +5015,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>485</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35946</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>485</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>485</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35976</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>485</v>
       </c>
@@ -5207,7 +5209,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36007</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>485</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36038</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36068</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>485</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36099</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36129</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>485</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>485</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36160</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>485</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>485</v>
       </c>
@@ -5596,7 +5598,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>92</v>
       </c>
@@ -5620,7 +5622,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36191</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>36251</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>485</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>485</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>485</v>
       </c>
@@ -5738,7 +5740,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36219</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
         <v>485</v>
       </c>
@@ -5798,7 +5800,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36250</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>36163</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
         <v>485</v>
       </c>
@@ -5858,7 +5860,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36280</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>485</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>485</v>
       </c>
@@ -5948,7 +5950,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36311</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
         <v>485</v>
       </c>
@@ -6008,7 +6010,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36341</v>
       </c>
@@ -6038,7 +6040,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36372</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>485</v>
       </c>
@@ -6098,7 +6100,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36403</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>485</v>
       </c>
@@ -6158,7 +6160,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36433</v>
       </c>
@@ -6188,7 +6190,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36464</v>
       </c>
@@ -6218,7 +6220,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36494</v>
       </c>
@@ -6248,7 +6250,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36525</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>485</v>
       </c>
@@ -6308,7 +6310,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>485</v>
       </c>
@@ -6336,7 +6338,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
         <v>93</v>
       </c>
@@ -6360,7 +6362,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36556</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>485</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>485</v>
       </c>
@@ -6450,7 +6452,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36585</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>485</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>485</v>
       </c>
@@ -6540,7 +6542,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36616</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36646</v>
       </c>
@@ -6602,7 +6604,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36677</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>485</v>
       </c>
@@ -6662,7 +6664,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36707</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36738</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>485</v>
       </c>
@@ -6754,7 +6756,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36769</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>485</v>
       </c>
@@ -6814,7 +6816,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36799</v>
       </c>
@@ -6844,7 +6846,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36830</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>36687</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>485</v>
       </c>
@@ -6904,7 +6906,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36860</v>
       </c>
@@ -6934,7 +6936,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36891</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
         <v>485</v>
       </c>
@@ -6996,7 +6998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
         <v>485</v>
       </c>
@@ -7024,7 +7026,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>94</v>
       </c>
@@ -7048,7 +7050,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36922</v>
       </c>
@@ -7078,7 +7080,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36950</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>485</v>
       </c>
@@ -7138,7 +7140,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36981</v>
       </c>
@@ -7168,7 +7170,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37011</v>
       </c>
@@ -7198,7 +7200,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37042</v>
       </c>
@@ -7228,7 +7230,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37072</v>
       </c>
@@ -7258,7 +7260,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37103</v>
       </c>
@@ -7288,7 +7290,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37134</v>
       </c>
@@ -7314,7 +7316,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37164</v>
       </c>
@@ -7340,7 +7342,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37195</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>485</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37225</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>485</v>
       </c>
@@ -7462,7 +7464,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37256</v>
       </c>
@@ -7492,7 +7494,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>96</v>
       </c>
@@ -7516,7 +7518,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37287</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>485</v>
       </c>
@@ -7578,7 +7580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="s">
         <v>485</v>
       </c>
@@ -7606,7 +7608,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37315</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>37470</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
         <v>485</v>
       </c>
@@ -7666,7 +7668,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37346</v>
       </c>
@@ -7698,7 +7700,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37376</v>
       </c>
@@ -7728,7 +7730,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37407</v>
       </c>
@@ -7760,7 +7762,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37437</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
         <v>485</v>
       </c>
@@ -7820,7 +7822,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37468</v>
       </c>
@@ -7852,7 +7854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37499</v>
       </c>
@@ -7882,7 +7884,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37529</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37560</v>
       </c>
@@ -7944,7 +7946,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37590</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>485</v>
       </c>
@@ -8006,7 +8008,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
         <v>485</v>
       </c>
@@ -8034,7 +8036,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37621</v>
       </c>
@@ -8064,7 +8066,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40" t="s">
         <v>485</v>
       </c>
@@ -8092,7 +8094,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>95</v>
       </c>
@@ -8116,7 +8118,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37652</v>
       </c>
@@ -8146,7 +8148,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
         <v>485</v>
       </c>
@@ -8176,7 +8178,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37680</v>
       </c>
@@ -8208,7 +8210,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40" t="s">
         <v>485</v>
       </c>
@@ -8236,7 +8238,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40" t="s">
         <v>485</v>
       </c>
@@ -8266,7 +8268,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
         <v>485</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
         <v>485</v>
       </c>
@@ -8324,7 +8326,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37711</v>
       </c>
@@ -8356,7 +8358,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>37741</v>
       </c>
@@ -8382,7 +8384,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37772</v>
       </c>
@@ -8408,7 +8410,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37802</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>485</v>
       </c>
@@ -8468,7 +8470,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37833</v>
       </c>
@@ -8494,7 +8496,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>37864</v>
       </c>
@@ -8520,7 +8522,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37894</v>
       </c>
@@ -8550,7 +8552,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37925</v>
       </c>
@@ -8580,7 +8582,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
         <v>485</v>
       </c>
@@ -8608,7 +8610,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37955</v>
       </c>
@@ -8638,7 +8640,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37986</v>
       </c>
@@ -8668,7 +8670,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
         <v>485</v>
       </c>
@@ -8696,7 +8698,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>97</v>
       </c>
@@ -8720,7 +8722,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38017</v>
       </c>
@@ -8750,7 +8752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
         <v>485</v>
       </c>
@@ -8778,7 +8780,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38046</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
         <v>485</v>
       </c>
@@ -8838,7 +8840,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38077</v>
       </c>
@@ -8868,7 +8870,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38107</v>
       </c>
@@ -8898,7 +8900,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38138</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
         <v>485</v>
       </c>
@@ -8958,7 +8960,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38168</v>
       </c>
@@ -8988,7 +8990,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38199</v>
       </c>
@@ -9020,7 +9022,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>485</v>
       </c>
@@ -9048,7 +9050,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38230</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>38237</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>485</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>485</v>
       </c>
@@ -9140,7 +9142,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
         <v>485</v>
       </c>
@@ -9168,7 +9170,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38260</v>
       </c>
@@ -9198,7 +9200,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38291</v>
       </c>
@@ -9230,7 +9232,7 @@
         <v>38301</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>485</v>
       </c>
@@ -9260,7 +9262,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>485</v>
       </c>
@@ -9288,7 +9290,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38321</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>485</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>485</v>
       </c>
@@ -9378,7 +9380,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38352</v>
       </c>
@@ -9408,7 +9410,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
         <v>485</v>
       </c>
@@ -9436,7 +9438,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
         <v>98</v>
       </c>
@@ -9460,7 +9462,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38383</v>
       </c>
@@ -9492,7 +9494,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
         <v>485</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
         <v>485</v>
       </c>
@@ -9550,7 +9552,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38411</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
         <v>485</v>
       </c>
@@ -9612,7 +9614,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40" t="s">
         <v>485</v>
       </c>
@@ -9640,7 +9642,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38442</v>
       </c>
@@ -9670,7 +9672,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38472</v>
       </c>
@@ -9700,7 +9702,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
         <v>485</v>
       </c>
@@ -9728,7 +9730,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38503</v>
       </c>
@@ -9758,7 +9760,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40" t="s">
         <v>485</v>
       </c>
@@ -9788,7 +9790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
         <v>485</v>
       </c>
@@ -9816,7 +9818,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38533</v>
       </c>
@@ -9846,7 +9848,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38564</v>
       </c>
@@ -9878,7 +9880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40" t="s">
         <v>485</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40" t="s">
         <v>485</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40" t="s">
         <v>485</v>
       </c>
@@ -9966,7 +9968,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>38595</v>
       </c>
@@ -9996,7 +9998,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>38625</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40" t="s">
         <v>485</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
         <v>485</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
         <v>485</v>
       </c>
@@ -10116,7 +10118,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38656</v>
       </c>
@@ -10148,7 +10150,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40" t="s">
         <v>485</v>
       </c>
@@ -10178,7 +10180,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40" t="s">
         <v>485</v>
       </c>
@@ -10206,7 +10208,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38686</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40" t="s">
         <v>485</v>
       </c>
@@ -10266,7 +10268,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38717</v>
       </c>
@@ -10298,7 +10300,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
         <v>485</v>
       </c>
@@ -10326,7 +10328,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>99</v>
       </c>
@@ -10350,7 +10352,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38748</v>
       </c>
@@ -10380,7 +10382,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
         <v>485</v>
       </c>
@@ -10408,7 +10410,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38776</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40" t="s">
         <v>485</v>
       </c>
@@ -10466,7 +10468,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38807</v>
       </c>
@@ -10496,7 +10498,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38837</v>
       </c>
@@ -10526,7 +10528,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38868</v>
       </c>
@@ -10556,7 +10558,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38898</v>
       </c>
@@ -10588,7 +10590,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
         <v>485</v>
       </c>
@@ -10618,7 +10620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40" t="s">
         <v>485</v>
       </c>
@@ -10646,7 +10648,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38929</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
         <v>485</v>
       </c>
@@ -10706,7 +10708,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38960</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40" t="s">
         <v>485</v>
       </c>
@@ -10766,7 +10768,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38990</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40" t="s">
         <v>485</v>
       </c>
@@ -10826,7 +10828,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39021</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40" t="s">
         <v>485</v>
       </c>
@@ -10886,7 +10888,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39051</v>
       </c>
@@ -10918,7 +10920,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40" t="s">
         <v>485</v>
       </c>
@@ -10946,7 +10948,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39082</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40" t="s">
         <v>485</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40" t="s">
         <v>485</v>
       </c>
@@ -11036,7 +11038,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="47" t="s">
         <v>263</v>
       </c>
@@ -11060,7 +11062,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39113</v>
       </c>
@@ -11092,7 +11094,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40" t="s">
         <v>485</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40" t="s">
         <v>485</v>
       </c>
@@ -11150,7 +11152,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39141</v>
       </c>
@@ -11180,7 +11182,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>39172</v>
       </c>
@@ -11210,7 +11212,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>39202</v>
       </c>
@@ -11240,7 +11242,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39233</v>
       </c>
@@ -11270,7 +11272,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39263</v>
       </c>
@@ -11300,7 +11302,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39294</v>
       </c>
@@ -11330,7 +11332,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39325</v>
       </c>
@@ -11360,7 +11362,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39355</v>
       </c>
@@ -11390,7 +11392,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39386</v>
       </c>
@@ -11420,7 +11422,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39416</v>
       </c>
@@ -11452,7 +11454,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40" t="s">
         <v>485</v>
       </c>
@@ -11480,7 +11482,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39447</v>
       </c>
@@ -11512,7 +11514,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40" t="s">
         <v>485</v>
       </c>
@@ -11540,7 +11542,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40" t="s">
         <v>485</v>
       </c>
@@ -11568,7 +11570,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>264</v>
       </c>
@@ -11592,7 +11594,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39478</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40" t="s">
         <v>485</v>
       </c>
@@ -11650,7 +11652,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39507</v>
       </c>
@@ -11680,7 +11682,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39538</v>
       </c>
@@ -11710,7 +11712,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39568</v>
       </c>
@@ -11740,7 +11742,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40" t="s">
         <v>485</v>
       </c>
@@ -11770,7 +11772,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40" t="s">
         <v>485</v>
       </c>
@@ -11798,7 +11800,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39599</v>
       </c>
@@ -11828,7 +11830,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>39629</v>
       </c>
@@ -11858,7 +11860,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39660</v>
       </c>
@@ -11888,7 +11890,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39691</v>
       </c>
@@ -11918,7 +11920,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>39721</v>
       </c>
@@ -11948,7 +11950,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39752</v>
       </c>
@@ -11978,7 +11980,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>39782</v>
       </c>
@@ -12008,7 +12010,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39813</v>
       </c>
@@ -12038,7 +12040,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="47" t="s">
         <v>265</v>
       </c>
@@ -12062,7 +12064,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39844</v>
       </c>
@@ -12092,7 +12094,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40" t="s">
         <v>485</v>
       </c>
@@ -12120,7 +12122,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39872</v>
       </c>
@@ -12150,7 +12152,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>39903</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40" t="s">
         <v>485</v>
       </c>
@@ -12210,7 +12212,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39933</v>
       </c>
@@ -12240,7 +12242,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>39964</v>
       </c>
@@ -12270,7 +12272,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39994</v>
       </c>
@@ -12302,7 +12304,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40" t="s">
         <v>485</v>
       </c>
@@ -12330,7 +12332,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40025</v>
       </c>
@@ -12360,7 +12362,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>40056</v>
       </c>
@@ -12390,7 +12392,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40086</v>
       </c>
@@ -12420,7 +12422,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40117</v>
       </c>
@@ -12450,7 +12452,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40147</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40" t="s">
         <v>485</v>
       </c>
@@ -12510,7 +12512,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40178</v>
       </c>
@@ -12540,7 +12542,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="47" t="s">
         <v>266</v>
       </c>
@@ -12564,7 +12566,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40209</v>
       </c>
@@ -12594,7 +12596,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40237</v>
       </c>
@@ -12624,7 +12626,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40268</v>
       </c>
@@ -12656,7 +12658,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40" t="s">
         <v>485</v>
       </c>
@@ -12684,7 +12686,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40298</v>
       </c>
@@ -12714,7 +12716,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40329</v>
       </c>
@@ -12744,7 +12746,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40359</v>
       </c>
@@ -12776,7 +12778,7 @@
         <v>40215</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40" t="s">
         <v>485</v>
       </c>
@@ -12804,7 +12806,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40390</v>
       </c>
@@ -12836,7 +12838,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40" t="s">
         <v>485</v>
       </c>
@@ -12864,7 +12866,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40421</v>
       </c>
@@ -12894,7 +12896,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40451</v>
       </c>
@@ -12924,7 +12926,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>40482</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40" t="s">
         <v>485</v>
       </c>
@@ -12984,7 +12986,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40512</v>
       </c>
@@ -13016,7 +13018,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40" t="s">
         <v>485</v>
       </c>
@@ -13044,7 +13046,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>40543</v>
       </c>
@@ -13074,7 +13076,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="47" t="s">
         <v>267</v>
       </c>
@@ -13098,7 +13100,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40574</v>
       </c>
@@ -13128,7 +13130,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>40602</v>
       </c>
@@ -13158,7 +13160,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40633</v>
       </c>
@@ -13188,7 +13190,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40663</v>
       </c>
@@ -13218,7 +13220,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40694</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40" t="s">
         <v>485</v>
       </c>
@@ -13278,7 +13280,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40724</v>
       </c>
@@ -13310,7 +13312,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40" t="s">
         <v>485</v>
       </c>
@@ -13338,7 +13340,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>40755</v>
       </c>
@@ -13368,7 +13370,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40" t="s">
         <v>485</v>
       </c>
@@ -13398,7 +13400,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40" t="s">
         <v>485</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>40786</v>
       </c>
@@ -13458,7 +13460,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40" t="s">
         <v>485</v>
       </c>
@@ -13486,7 +13488,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40816</v>
       </c>
@@ -13518,7 +13520,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40" t="s">
         <v>485</v>
       </c>
@@ -13546,7 +13548,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40847</v>
       </c>
@@ -13576,7 +13578,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40" t="s">
         <v>485</v>
       </c>
@@ -13604,7 +13606,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40877</v>
       </c>
@@ -13636,7 +13638,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40" t="s">
         <v>485</v>
       </c>
@@ -13666,7 +13668,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40908</v>
       </c>
@@ -13696,7 +13698,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40" t="s">
         <v>485</v>
       </c>
@@ -13724,7 +13726,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40" t="s">
         <v>485</v>
       </c>
@@ -13752,7 +13754,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="47" t="s">
         <v>306</v>
       </c>
@@ -13776,7 +13778,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40939</v>
       </c>
@@ -13802,7 +13804,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40968</v>
       </c>
@@ -13828,7 +13830,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40999</v>
       </c>
@@ -13854,7 +13856,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41029</v>
       </c>
@@ -13880,7 +13882,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41060</v>
       </c>
@@ -13912,7 +13914,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41090</v>
       </c>
@@ -13938,7 +13940,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>41121</v>
       </c>
@@ -13964,7 +13966,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41152</v>
       </c>
@@ -13990,7 +13992,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>41182</v>
       </c>
@@ -14016,7 +14018,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>41213</v>
       </c>
@@ -14042,7 +14044,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41243</v>
       </c>
@@ -14068,7 +14070,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41274</v>
       </c>
@@ -14094,7 +14096,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="47" t="s">
         <v>307</v>
       </c>
@@ -14118,7 +14120,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41305</v>
       </c>
@@ -14148,7 +14150,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>376</v>
@@ -14174,7 +14176,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>41333</v>
       </c>
@@ -14206,7 +14208,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40" t="s">
         <v>485</v>
       </c>
@@ -14234,7 +14236,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>41364</v>
       </c>
@@ -14264,7 +14266,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41394</v>
       </c>
@@ -14296,7 +14298,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40" t="s">
         <v>485</v>
       </c>
@@ -14324,7 +14326,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>41425</v>
       </c>
@@ -14356,7 +14358,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40" t="s">
         <v>485</v>
       </c>
@@ -14384,7 +14386,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41455</v>
       </c>
@@ -14414,7 +14416,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41486</v>
       </c>
@@ -14446,7 +14448,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40" t="s">
         <v>485</v>
       </c>
@@ -14474,7 +14476,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>41517</v>
       </c>
@@ -14504,7 +14506,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41547</v>
       </c>
@@ -14536,7 +14538,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40" t="s">
         <v>485</v>
       </c>
@@ -14564,7 +14566,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>41578</v>
       </c>
@@ -14594,7 +14596,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41608</v>
       </c>
@@ -14624,7 +14626,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>41639</v>
       </c>
@@ -14654,7 +14656,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40" t="s">
         <v>485</v>
       </c>
@@ -14682,7 +14684,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="47" t="s">
         <v>375</v>
       </c>
@@ -14706,7 +14708,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41670</v>
       </c>
@@ -14736,7 +14738,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40" t="s">
         <v>485</v>
       </c>
@@ -14766,7 +14768,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41698</v>
       </c>
@@ -14798,7 +14800,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>41729</v>
       </c>
@@ -14832,7 +14834,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>41759</v>
       </c>
@@ -14866,7 +14868,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41790</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41820</v>
       </c>
@@ -14932,7 +14934,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41851</v>
       </c>
@@ -14966,7 +14968,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>41882</v>
       </c>
@@ -15000,7 +15002,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>41912</v>
       </c>
@@ -15030,7 +15032,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>41943</v>
       </c>
@@ -15062,7 +15064,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40" t="s">
         <v>485</v>
       </c>
@@ -15090,7 +15092,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>41973</v>
       </c>
@@ -15120,7 +15122,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42004</v>
       </c>
@@ -15154,7 +15156,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40" t="s">
         <v>485</v>
       </c>
@@ -15182,7 +15184,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="47" t="s">
         <v>374</v>
       </c>
@@ -15206,7 +15208,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42035</v>
       </c>
@@ -15236,7 +15238,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42063</v>
       </c>
@@ -15270,7 +15272,7 @@
         <v>42249</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42094</v>
       </c>
@@ -15300,7 +15302,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>42124</v>
       </c>
@@ -15330,7 +15332,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>42155</v>
       </c>
@@ -15364,7 +15366,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>42185</v>
       </c>
@@ -15394,7 +15396,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>42216</v>
       </c>
@@ -15428,7 +15430,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>42247</v>
       </c>
@@ -15462,7 +15464,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>42277</v>
       </c>
@@ -15496,7 +15498,7 @@
         <v>42194</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42308</v>
       </c>
@@ -15530,7 +15532,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42338</v>
       </c>
@@ -15564,7 +15566,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42369</v>
       </c>
@@ -15598,7 +15600,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40" t="s">
         <v>485</v>
       </c>
@@ -15626,7 +15628,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="47" t="s">
         <v>373</v>
       </c>
@@ -15650,7 +15652,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42400</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>42429</v>
       </c>
@@ -15714,7 +15716,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42460</v>
       </c>
@@ -15744,7 +15746,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>42490</v>
       </c>
@@ -15774,7 +15776,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>42521</v>
       </c>
@@ -15808,7 +15810,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>42551</v>
       </c>
@@ -15838,7 +15840,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>42582</v>
       </c>
@@ -15872,7 +15874,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>42613</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>42643</v>
       </c>
@@ -15936,7 +15938,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>42674</v>
       </c>
@@ -15966,7 +15968,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42704</v>
       </c>
@@ -16000,7 +16002,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42735</v>
       </c>
@@ -16030,7 +16032,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40" t="s">
         <v>485</v>
       </c>
@@ -16058,7 +16060,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
         <v>372</v>
       </c>
@@ -16082,7 +16084,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>42766</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>42794</v>
       </c>
@@ -16146,7 +16148,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>42825</v>
       </c>
@@ -16176,7 +16178,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>42855</v>
       </c>
@@ -16208,7 +16210,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>42886</v>
       </c>
@@ -16238,7 +16240,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42916</v>
       </c>
@@ -16268,7 +16270,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>42947</v>
       </c>
@@ -16298,7 +16300,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42978</v>
       </c>
@@ -16328,7 +16330,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43008</v>
       </c>
@@ -16358,7 +16360,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43039</v>
       </c>
@@ -16392,7 +16394,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43069</v>
       </c>
@@ -16418,7 +16420,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>43100</v>
       </c>
@@ -16448,7 +16450,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>42</v>
       </c>
@@ -16472,7 +16474,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43131</v>
       </c>
@@ -16500,7 +16502,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40" t="s">
         <v>485</v>
       </c>
@@ -16528,7 +16530,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40" t="s">
         <v>485</v>
       </c>
@@ -16556,7 +16558,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43159</v>
       </c>
@@ -16582,7 +16584,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43190</v>
       </c>
@@ -16608,7 +16610,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43220</v>
       </c>
@@ -16634,7 +16636,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43251</v>
       </c>
@@ -16664,7 +16666,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43281</v>
       </c>
@@ -16690,7 +16692,7 @@
       <c r="J419" s="12"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43312</v>
       </c>
@@ -16720,7 +16722,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43343</v>
       </c>
@@ -16752,7 +16754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40" t="s">
         <v>485</v>
       </c>
@@ -16780,7 +16782,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43373</v>
       </c>
@@ -16812,7 +16814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43404</v>
       </c>
@@ -16844,7 +16846,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>43434</v>
       </c>
@@ -16876,7 +16878,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43465</v>
       </c>
@@ -16906,7 +16908,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40" t="s">
         <v>485</v>
       </c>
@@ -16934,7 +16936,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="47" t="s">
         <v>43</v>
       </c>
@@ -16958,7 +16960,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43496</v>
       </c>
@@ -16988,7 +16990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40" t="s">
         <v>485</v>
       </c>
@@ -17016,7 +17018,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40" t="s">
         <v>485</v>
       </c>
@@ -17044,7 +17046,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43524</v>
       </c>
@@ -17076,7 +17078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40" t="s">
         <v>485</v>
       </c>
@@ -17104,7 +17106,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43555</v>
       </c>
@@ -17134,7 +17136,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43585</v>
       </c>
@@ -17164,7 +17166,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43616</v>
       </c>
@@ -17196,7 +17198,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40" t="s">
         <v>485</v>
       </c>
@@ -17224,7 +17226,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="48"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43646</v>
       </c>
@@ -17254,7 +17256,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43677</v>
       </c>
@@ -17284,7 +17286,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43708</v>
       </c>
@@ -17314,7 +17316,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43738</v>
       </c>
@@ -17344,7 +17346,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43769</v>
       </c>
@@ -17376,7 +17378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40" t="s">
         <v>485</v>
       </c>
@@ -17404,7 +17406,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43799</v>
       </c>
@@ -17434,7 +17436,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43830</v>
       </c>
@@ -17464,7 +17466,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="47" t="s">
         <v>44</v>
       </c>
@@ -17488,7 +17490,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43861</v>
       </c>
@@ -17518,7 +17520,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43890</v>
       </c>
@@ -17548,7 +17550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40" t="s">
         <v>485</v>
       </c>
@@ -17576,7 +17578,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43921</v>
       </c>
@@ -17602,7 +17604,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43951</v>
       </c>
@@ -17628,7 +17630,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43982</v>
       </c>
@@ -17654,7 +17656,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44012</v>
       </c>
@@ -17684,7 +17686,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44043</v>
       </c>
@@ -17714,7 +17716,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44074</v>
       </c>
@@ -17744,7 +17746,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44104</v>
       </c>
@@ -17774,7 +17776,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44135</v>
       </c>
@@ -17800,7 +17802,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44165</v>
       </c>
@@ -17826,7 +17828,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44196</v>
       </c>
@@ -17856,7 +17858,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="47" t="s">
         <v>45</v>
       </c>
@@ -17880,7 +17882,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44227</v>
       </c>
@@ -17910,7 +17912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44255</v>
       </c>
@@ -17936,7 +17938,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>44286</v>
       </c>
@@ -17962,7 +17964,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44316</v>
       </c>
@@ -17988,7 +17990,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44347</v>
       </c>
@@ -18014,7 +18016,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44377</v>
       </c>
@@ -18040,7 +18042,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44408</v>
       </c>
@@ -18066,7 +18068,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44439</v>
       </c>
@@ -18092,7 +18094,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44469</v>
       </c>
@@ -18118,7 +18120,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44500</v>
       </c>
@@ -18144,7 +18146,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44530</v>
       </c>
@@ -18170,7 +18172,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44561</v>
       </c>
@@ -18200,7 +18202,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="47" t="s">
         <v>88</v>
       </c>
@@ -18224,7 +18226,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44592</v>
       </c>
@@ -18250,7 +18252,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44620</v>
       </c>
@@ -18276,7 +18278,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>44651</v>
       </c>
@@ -18308,7 +18310,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40" t="s">
         <v>485</v>
       </c>
@@ -18336,7 +18338,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>44681</v>
       </c>
@@ -18368,7 +18370,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40" t="s">
         <v>485</v>
       </c>
@@ -18396,7 +18398,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44712</v>
       </c>
@@ -18428,7 +18430,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40" t="s">
         <v>485</v>
       </c>
@@ -18456,7 +18458,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44742</v>
       </c>
@@ -18486,7 +18488,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44773</v>
       </c>
@@ -18518,7 +18520,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40" t="s">
         <v>485</v>
       </c>
@@ -18546,7 +18548,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44804</v>
       </c>
@@ -18578,7 +18580,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40" t="s">
         <v>485</v>
       </c>
@@ -18606,7 +18608,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44834</v>
       </c>
@@ -18638,7 +18640,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40" t="s">
         <v>485</v>
       </c>
@@ -18666,7 +18668,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44865</v>
       </c>
@@ -18698,7 +18700,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40" t="s">
         <v>485</v>
       </c>
@@ -18726,7 +18728,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44895</v>
       </c>
@@ -18758,7 +18760,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40" t="s">
         <v>485</v>
       </c>
@@ -18786,7 +18788,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="49"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44926</v>
       </c>
@@ -18818,7 +18820,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40" t="s">
         <v>485</v>
       </c>
@@ -18848,7 +18850,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40" t="s">
         <v>485</v>
       </c>
@@ -18878,7 +18880,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40" t="s">
         <v>485</v>
       </c>
@@ -18906,7 +18908,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="47" t="s">
         <v>87</v>
       </c>
@@ -18930,7 +18932,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44957</v>
       </c>
@@ -18960,7 +18962,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44985</v>
       </c>
@@ -18986,7 +18988,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>45016</v>
       </c>
@@ -19012,7 +19014,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>45046</v>
       </c>
@@ -19038,7 +19040,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45077</v>
       </c>
@@ -19064,7 +19066,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>45107</v>
       </c>
@@ -19090,7 +19092,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45138</v>
       </c>
@@ -19122,7 +19124,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40" t="s">
         <v>485</v>
       </c>
@@ -19152,7 +19154,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>45169</v>
       </c>
@@ -19178,7 +19180,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>45199</v>
       </c>
@@ -19204,7 +19206,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>45230</v>
       </c>
@@ -19230,7 +19232,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>45260</v>
       </c>
@@ -19256,26 +19258,30 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>45291</v>
       </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="34"/>
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A511" s="40"/>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" s="47" t="s">
+        <v>486</v>
+      </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
       <c r="D511" s="39"/>
@@ -19286,13 +19292,17 @@
         <v/>
       </c>
       <c r="H511" s="39"/>
-      <c r="I511" s="9"/>
+      <c r="I511" s="34"/>
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A512" s="40"/>
-      <c r="B512" s="20"/>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
@@ -19304,10 +19314,14 @@
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
-    </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A513" s="40"/>
+      <c r="K512" s="49">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="40">
+        <v>45351</v>
+      </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
       <c r="D513" s="39"/>
@@ -19322,8 +19336,10 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A514" s="40"/>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="40">
+        <v>45382</v>
+      </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
       <c r="D514" s="39"/>
@@ -19338,8 +19354,10 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A515" s="40"/>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="40">
+        <v>45412</v>
+      </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
       <c r="D515" s="39"/>
@@ -19354,8 +19372,10 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A516" s="40"/>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="40">
+        <v>45443</v>
+      </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
@@ -19370,8 +19390,10 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517" s="40"/>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="40">
+        <v>45473</v>
+      </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
       <c r="D517" s="39"/>
@@ -19386,8 +19408,10 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="40"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="40">
+        <v>45504</v>
+      </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
       <c r="D518" s="39"/>
@@ -19402,8 +19426,10 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A519" s="40"/>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="40">
+        <v>45535</v>
+      </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
       <c r="D519" s="39"/>
@@ -19418,8 +19444,10 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A520" s="40"/>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="40">
+        <v>45565</v>
+      </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
       <c r="D520" s="39"/>
@@ -19434,8 +19462,10 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521" s="40"/>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="40">
+        <v>45596</v>
+      </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
@@ -19450,8 +19480,10 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A522" s="40"/>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A522" s="40">
+        <v>45626</v>
+      </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
@@ -19466,8 +19498,10 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A523" s="40"/>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523" s="40">
+        <v>45657</v>
+      </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
@@ -19482,8 +19516,10 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A524" s="40"/>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" s="40">
+        <v>45688</v>
+      </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
@@ -19498,8 +19534,10 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A525" s="40"/>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" s="40">
+        <v>45716</v>
+      </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
@@ -19514,8 +19552,10 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A526" s="40"/>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526" s="40">
+        <v>45747</v>
+      </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
@@ -19530,8 +19570,10 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527" s="40"/>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" s="40">
+        <v>45777</v>
+      </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -19546,7 +19588,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -19562,7 +19604,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -19578,7 +19620,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -19594,7 +19636,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -19610,7 +19652,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -19626,7 +19668,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -19642,7 +19684,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -19658,7 +19700,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -19674,7 +19716,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -19690,7 +19732,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -19706,7 +19748,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -19722,7 +19764,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -19738,7 +19780,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -19754,7 +19796,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -19770,7 +19812,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -19786,7 +19828,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -19802,7 +19844,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -19818,7 +19860,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -19834,7 +19876,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -19850,7 +19892,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -19866,7 +19908,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -19882,7 +19924,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -19898,7 +19940,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -19914,7 +19956,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -19930,7 +19972,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -19946,7 +19988,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -19962,7 +20004,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -19978,7 +20020,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -19994,7 +20036,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -20010,7 +20052,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -20026,39 +20068,39 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
-      <c r="B558" s="15"/>
-      <c r="C558" s="41"/>
-      <c r="D558" s="42"/>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
       <c r="E558" s="9"/>
-      <c r="F558" s="15"/>
-      <c r="G558" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H558" s="42"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="39"/>
       <c r="I558" s="9"/>
-      <c r="J558" s="12"/>
-      <c r="K558" s="15"/>
-    </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
-      <c r="B559" s="20"/>
-      <c r="C559" s="13"/>
-      <c r="D559" s="39"/>
+      <c r="B559" s="15"/>
+      <c r="C559" s="41"/>
+      <c r="D559" s="42"/>
       <c r="E559" s="9"/>
-      <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H559" s="39"/>
+      <c r="F559" s="15"/>
+      <c r="G559" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="42"/>
       <c r="I559" s="9"/>
-      <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J559" s="12"/>
+      <c r="K559" s="15"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -20074,7 +20116,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -20090,7 +20132,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -20106,7 +20148,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -20122,7 +20164,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -20138,7 +20180,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -20154,7 +20196,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -20170,7 +20212,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -20186,7 +20228,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -20202,7 +20244,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -20218,7 +20260,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -20234,7 +20276,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -20250,7 +20292,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -20266,7 +20308,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -20282,7 +20324,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -20298,7 +20340,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -20313,6 +20355,22 @@
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="40"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20329,10 +20387,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20355,7 +20413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20363,21 +20421,21 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>32</v>
       </c>
@@ -20390,7 +20448,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20419,7 +20477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20445,17 +20503,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20476,7 +20534,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20503,7 +20561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20529,7 +20587,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20555,7 +20613,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20584,7 +20642,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20610,7 +20668,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20636,7 +20694,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20662,7 +20720,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20688,7 +20746,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20708,7 +20766,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20728,7 +20786,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20748,7 +20806,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20769,7 +20827,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20790,7 +20848,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20811,7 +20869,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20832,7 +20890,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20853,7 +20911,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20874,7 +20932,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20895,7 +20953,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20916,7 +20974,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20937,7 +20995,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20958,7 +21016,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20979,7 +21037,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21000,7 +21058,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21021,7 +21079,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21042,7 +21100,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21063,7 +21121,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21084,7 +21142,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21105,7 +21163,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21126,7 +21184,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21147,7 +21205,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21168,7 +21226,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21177,7 +21235,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21186,7 +21244,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21195,7 +21253,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21204,7 +21262,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21213,7 +21271,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21222,7 +21280,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21231,7 +21289,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21240,7 +21298,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21249,7 +21307,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21258,7 +21316,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21267,7 +21325,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21276,7 +21334,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21285,7 +21343,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21294,7 +21352,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21303,7 +21361,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21312,7 +21370,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21321,7 +21379,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21330,7 +21388,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21339,7 +21397,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21348,7 +21406,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21357,7 +21415,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21366,7 +21424,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21375,7 +21433,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21384,7 +21442,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21393,7 +21451,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21402,7 +21460,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21411,7 +21469,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21420,7 +21478,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21429,7 +21487,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
